--- a/biology/Biologie cellulaire et moléculaire/Synapse_réciproque/Synapse_réciproque.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Synapse_réciproque/Synapse_réciproque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Synapse_r%C3%A9ciproque</t>
+          <t>Synapse_réciproque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les synapses réciproques sont caractérisées par une transmission de neurotransmetteurs entre deux synapses dans deux sens différents par un mécanisme mettant en jeu deux sites plus ou moins adjacents. Le sens est repérable à la présence et à l'orientation des vésicules synaptiques dans le bouton axonal.
  Portail de la biologie cellulaire et moléculaire   Portail des neurosciences                    </t>
